--- a/fhir/ig/iq/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/fhir/ig/iq/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:55:58-03:00</t>
+    <t>2024-12-16T14:50:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1068,11 +1068,11 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl|CareTeam|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl|RelatedPerson)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/quirurgico/StructureDefinition/PractitionerProfesionalLE)
 </t>
   </si>
   <si>
-    <t>Quien es responsable por la observación</t>
+    <t>Profesional que realiza la observación</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -1990,7 +1990,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6023,7 +6023,7 @@
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>95</v>

--- a/fhir/ig/iq/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/fhir/ig/iq/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:11-03:00</t>
+    <t>2024-12-17T10:27:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
